--- a/EJBComponents/ImageProcessingBenchmark_3/stats/PowerConsumption/ImagePreparationTimes.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark_3/stats/PowerConsumption/ImagePreparationTimes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="-165" windowWidth="14400" windowHeight="14805"/>
+    <workbookView xWindow="11865" yWindow="-15" windowWidth="16950" windowHeight="14805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>Thread_1</t>
   </si>
@@ -71,6 +71,27 @@
   <si>
     <t xml:space="preserve"> Image Preparation Times</t>
   </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Image Preparation Time Trends for One Thread</t>
+  </si>
+  <si>
+    <t>One Sub-Image</t>
+  </si>
+  <si>
+    <t>Sixteen Sub-Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Image Preparation Time Trends for Eight Threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Image Preparation Time Trends for Four Threads</t>
+  </si>
 </sst>
 </file>
 
@@ -91,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +143,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -146,24 +185,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,11 +1201,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117016832"/>
-        <c:axId val="117027200"/>
+        <c:axId val="46873984"/>
+        <c:axId val="60610432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117016832"/>
+        <c:axId val="46873984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117027200"/>
+        <c:crossAx val="60610432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1213,7 +1329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117027200"/>
+        <c:axId val="60610432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1328,7 +1444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117016832"/>
+        <c:crossAx val="46873984"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -2325,11 +2441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51588480"/>
-        <c:axId val="51783552"/>
+        <c:axId val="60906880"/>
+        <c:axId val="60909440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51588480"/>
+        <c:axId val="60906880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,7 +2561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51783552"/>
+        <c:crossAx val="60909440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2453,7 +2569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51783552"/>
+        <c:axId val="60909440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -2568,7 +2684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51588480"/>
+        <c:crossAx val="60906880"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -2592,6 +2708,2760 @@
           <c:y val="5.0251301234792968E-2"/>
           <c:w val="0.64674507532005543"/>
           <c:h val="6.903199908051548E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1" baseline="0"/>
+              <a:t>Preparation Times of Images </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ" sz="1600" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36787849349421681"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0417757672607162E-2"/>
+          <c:y val="4.6980450196381293E-2"/>
+          <c:w val="0.90510744663137499"/>
+          <c:h val="0.88104841760293795"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OneThread_OneSubImage_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$AG$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$56:$AG$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>7.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.594000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.094000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.682000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.756999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.274999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.316000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.255000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.277999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.334000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.314</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.289000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.274000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.341000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.317</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.326999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40.301000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.298000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OneThread_SixteenSubImage_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$AG$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$63:$AG$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>7.0720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.485999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.533999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.454000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.040999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.002000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.014000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.993000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.036000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.014000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.036999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.005000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.142000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.115000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.079000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.052</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.07</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.067999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.988999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40.064</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.008000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>EightThreads_OneSubImage_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$AG$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$71:$AG$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>7.0579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.156000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.282999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.282999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.292999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.702</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.694</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.702</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.69</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.718</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.7050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.6820000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.69</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.7279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.6849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.6950000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>EightThreads_SixteenSubImages_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$AG$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$78:$AG$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2.3929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0790000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.946</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.278</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.234</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.792</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.206</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.254</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.907</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.778</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.214</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.984</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.206</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2930000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="38818560"/>
+        <c:axId val="38820864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="38818560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Image Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43387804537243624"/>
+              <c:y val="0.96759938104650245"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38820864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38820864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="48"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Time </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t>(Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.4828350310221921E-4"/>
+              <c:y val="0.40526450183925211"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38818560"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41464322484119426"/>
+          <c:y val="5.7441851379821281E-2"/>
+          <c:w val="0.22450752152704756"/>
+          <c:h val="9.5307522898938249E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1" baseline="0"/>
+              <a:t>Preparation Times of Images </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ" sz="1600" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38186122832349406"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0417757672607162E-2"/>
+          <c:y val="4.6980450196381293E-2"/>
+          <c:w val="0.90510744663137499"/>
+          <c:h val="0.88104841760293795"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OneThread_OneSubImage_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$AG$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$AG$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>7.0640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.093</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.1109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.109</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.0949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.0990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.1159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.1689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.117</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.1130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.1180000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OneThread_SixteenSubImage_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$AG$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$AG$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>7.3259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0389999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.1210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.1159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.133</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.109</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.109</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.1070000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>EightThreads_OneSubImage_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$AG$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$72:$AG$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>7.0389999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.250999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.243</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.268000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.262</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.1269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.109</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.1130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.1219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.1079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.1070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.1239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.1180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.0839999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>EightThreads_SixteenSubImages_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$AG$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$79:$AG$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2.367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.774</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.966</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.786</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.778</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.881</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.778</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.778</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.782</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="41326848"/>
+        <c:axId val="41661184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="41326848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Image Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4664315883432647"/>
+              <c:y val="0.9675993378716703"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41661184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41661184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="48"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Time </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t>(Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.4828350310221921E-4"/>
+              <c:y val="0.40526450183925211"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41326848"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41464322484119426"/>
+          <c:y val="5.7441851379821281E-2"/>
+          <c:w val="0.56783898715113734"/>
+          <c:h val="5.7527118848470206E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3221,15 +6091,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>365793</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>20956</xdr:rowOff>
+      <xdr:colOff>348475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>603079</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>88991</xdr:rowOff>
+      <xdr:colOff>585761</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3252,16 +6122,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>237287</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>271922</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>189263</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3277,6 +6147,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>272762</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>510048</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>36802</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>237286</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4228,7 +7162,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4236,10 +7170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:AG96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AV10" sqref="AV10"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BD85" sqref="BD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4248,18 +7182,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -4309,142 +7243,142 @@
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <f>[1]prepLog!B37</f>
         <v>21.122766666666667</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>[1]prepLog!C37</f>
         <v>16.796933333333332</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f>[1]prepLog!D37</f>
         <v>17.090499999999999</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f>[1]prepLog!E37</f>
         <v>17.258083333333332</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>[1]prepLog!F37</f>
         <v>17.983483333333332</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f>[1]prepLog!G37</f>
         <v>17.971916666666665</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <f>[1]prepLog!H37</f>
         <v>18.024483333333333</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <f>[1]prepLog!I37</f>
         <v>17.993033333333333</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <f>[1]prepLog!J37</f>
         <v>18.049283333333332</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <f>[2]prepLog!B37</f>
         <v>3.7638500000000001</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>[2]prepLog!C37</f>
         <v>3.8110833333333334</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f>[2]prepLog!D37</f>
         <v>3.069</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f>[2]prepLog!E37</f>
         <v>3.0624166666666666</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f>[2]prepLog!F37</f>
         <v>3.7954666666666665</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f>[2]prepLog!G37</f>
         <v>3.7473999999999998</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f>[2]prepLog!H37</f>
         <v>3.7686000000000002</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f>[2]prepLog!I37</f>
         <v>2.9925833333333332</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <f>[2]prepLog!J37</f>
         <v>3.7668166666666667</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>21.122766666666667</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>16.796933333333332</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>17.090499999999999</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>17.258083333333332</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>17.983483333333332</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>17.971916666666665</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>18.024483333333333</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>17.993033333333333</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>18.049283333333332</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>3.7638500000000001</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>3.8110833333333334</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>3.069</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>3.0624166666666666</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>3.7954666666666665</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>3.7473999999999998</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>3.7686000000000002</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>2.9925833333333332</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>3.7668166666666667</v>
       </c>
     </row>
@@ -4484,39 +7418,39 @@
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <f>[3]prepLog!B37</f>
         <v>10.74</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <f>[3]prepLog!C37</f>
         <v>7.26</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f>[3]prepLog!D37</f>
         <v>8.58</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f>[3]prepLog!E37</f>
         <v>9.08</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f>[3]prepLog!F37</f>
         <v>9.09</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <f>[3]prepLog!G37</f>
         <v>9.1</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f>[3]prepLog!H37</f>
         <v>9.09</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <f>[3]prepLog!I37</f>
         <v>9.1</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <f>[3]prepLog!J37</f>
         <v>9.1199999999999992</v>
       </c>
@@ -4525,100 +7459,100 @@
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <f>[4]prepLog!B37</f>
         <v>3.8550499999999999</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <f>[4]prepLog!C37</f>
         <v>1.9191499999999999</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <f>[4]prepLog!D37</f>
         <v>1.5183666666666666</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <f>[4]prepLog!E37</f>
         <v>1.8713666666666666</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <f>[4]prepLog!F37</f>
         <v>1.8687833333333332</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f>[4]prepLog!G37</f>
         <v>1.8672166666666667</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f>[4]prepLog!H37</f>
         <v>1.8671833333333334</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <f>[4]prepLog!I37</f>
         <v>1.8769666666666667</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <f>[4]prepLog!J37</f>
         <v>1.8753500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>10.74</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>7.26</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>8.58</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>9.08</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>9.09</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>9.1</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>9.09</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>9.1</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>9.1199999999999992</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>3.8550499999999999</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>1.9191499999999999</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>1.5183666666666666</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>1.8713666666666666</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>1.8687833333333332</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>1.8672166666666667</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>1.8671833333333334</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>1.8769666666666667</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>1.8753500000000001</v>
       </c>
     </row>
@@ -4658,39 +7592,39 @@
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <f>[5]prepLog!B37</f>
         <v>7.2439999999999998</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <f>[5]prepLog!C37</f>
         <v>5.8757166666666665</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f>[5]prepLog!D37</f>
         <v>6.9043999999999999</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f>[5]prepLog!E37</f>
         <v>6.9800333333333331</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f>[5]prepLog!F37</f>
         <v>7.231416666666667</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f>[5]prepLog!G37</f>
         <v>7.2450999999999999</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <f>[5]prepLog!H37</f>
         <v>7.2489999999999997</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <f>[5]prepLog!I37</f>
         <v>7.2585499999999996</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f>[5]prepLog!J37</f>
         <v>7.255233333333333</v>
       </c>
@@ -4699,39 +7633,39 @@
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <f>[6]prepLog!B37</f>
         <v>4.3458833333333331</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <f>[6]prepLog!C37</f>
         <v>1.9641333333333333</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <f>[6]prepLog!D37</f>
         <v>1.9232166666666666</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <f>[6]prepLog!E37</f>
         <v>1.2758666666666667</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <f>[6]prepLog!F37</f>
         <v>1.4263166666666667</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <f>[6]prepLog!H37</f>
         <v>1.5261499999999999</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f>[6]prepLog!I37</f>
         <v>1.2783666666666667</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <f>[6]prepLog!J37</f>
         <v>1.3669666666666667</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <f>[6]prepLog!K37</f>
         <v>1.4297166666666667</v>
       </c>
@@ -4832,39 +7766,39 @@
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <f>[7]prepLog!B37</f>
         <v>4.3313333333333333</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <f>[7]prepLog!C37</f>
         <v>1.6363166666666666</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <f>[7]prepLog!D37</f>
         <v>0.81358333333333333</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <f>[7]prepLog!E37</f>
         <v>1.8812500000000001</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f>[7]prepLog!F37</f>
         <v>0.78598333333333337</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <f>[7]prepLog!G37</f>
         <v>1.8742666666666667</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f>[7]prepLog!H37</f>
         <v>0.95584999999999998</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <f>[7]prepLog!I37</f>
         <v>1.6112166666666667</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <f>[7]prepLog!J37</f>
         <v>0.96338333333333337</v>
       </c>
@@ -4873,39 +7807,39 @@
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <f>[8]prepLog!B37</f>
         <v>4.3445</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <f>[8]prepLog!C37</f>
         <v>1.9661166666666667</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <f>[8]prepLog!D37</f>
         <v>0.94664999999999999</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <f>[8]prepLog!E37</f>
         <v>1.2753666666666668</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <f>[8]prepLog!F37</f>
         <v>0.96260000000000001</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <f>[8]prepLog!G37</f>
         <v>1.1440666666666666</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <f>[8]prepLog!H37</f>
         <v>0.95979999999999999</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <f>[8]prepLog!I37</f>
         <v>1.08785</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <f>[8]prepLog!J37</f>
         <v>0.78249999999999997</v>
       </c>
@@ -5006,39 +7940,39 @@
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <f>[9]prepLog!B37</f>
         <v>4.2637666666666663</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <f>[9]prepLog!C37</f>
         <v>1.5931999999999999</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <f>[9]prepLog!D37</f>
         <v>0.80945</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f>[9]prepLog!E37</f>
         <v>1.7577</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f>[9]prepLog!F37</f>
         <v>2.2830499999999998</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <f>[9]prepLog!G37</f>
         <v>1.1385333333333334</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <f>[9]prepLog!H37</f>
         <v>1.6503833333333333</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <f>[9]prepLog!I37</f>
         <v>0.97788333333333333</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <f>[9]prepLog!J37</f>
         <v>1.2784</v>
       </c>
@@ -5047,39 +7981,39 @@
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <f>[10]prepLog!B37</f>
         <v>3.8630333333333335</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <f>[10]prepLog!C37</f>
         <v>1.9161333333333332</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <f>[10]prepLog!D37</f>
         <v>0.96935000000000004</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <f>[10]prepLog!E37</f>
         <v>1.4045833333333333</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <f>[10]prepLog!F37</f>
         <v>0.87186666666666668</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <f>[10]prepLog!G37</f>
         <v>1.0323166666666668</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <f>[10]prepLog!H37</f>
         <v>1.0924166666666666</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <f>[10]prepLog!I37</f>
         <v>0.98866666666666669</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <f>[10]prepLog!J37</f>
         <v>0.90669999999999995</v>
       </c>
@@ -5180,39 +8114,39 @@
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <f>[11]prepLog!B37</f>
         <v>4.3341333333333329</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <f>[11]prepLog!C37</f>
         <v>1.61205</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <f>[11]prepLog!D37</f>
         <v>0.8135</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <f>[11]prepLog!E37</f>
         <v>0.9276833333333333</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <f>[11]prepLog!F37</f>
         <v>1.5471999999999999</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <f>[11]prepLog!G37</f>
         <v>0.97868333333333335</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <f>[11]prepLog!H37</f>
         <v>1.15015</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <f>[11]prepLog!I37</f>
         <v>1.4964333333333333</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <f>[11]prepLog!J37</f>
         <v>0.98140000000000005</v>
       </c>
@@ -5221,39 +8155,39 @@
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <f>[12]prepLog!B37</f>
         <v>3.7638333333333334</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <f>[12]prepLog!C37</f>
         <v>1.9193499999999999</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <f>[12]prepLog!D37</f>
         <v>0.94618333333333338</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <f>[12]prepLog!E37</f>
         <v>0.99721666666666664</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <f>[12]prepLog!F37</f>
         <v>1.1727833333333333</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <f>[12]prepLog!G37</f>
         <v>0.96838333333333337</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>[12]prepLog!H37</f>
         <v>0.81181666666666663</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <f>[12]prepLog!I37</f>
         <v>1.0661666666666667</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <f>[12]prepLog!J37</f>
         <v>0.9750833333333333</v>
       </c>
@@ -5354,39 +8288,39 @@
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <f>[13]prepLog!B37</f>
         <v>4.340066666666667</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <f>[13]prepLog!C37</f>
         <v>1.5889166666666668</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <f>[13]prepLog!D37</f>
         <v>0.81053333333333333</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <f>[13]prepLog!E37</f>
         <v>1.1243333333333334</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <f>[13]prepLog!F37</f>
         <v>1.4593</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <f>[13]prepLog!G37</f>
         <v>1.7324333333333333</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <f>[13]prepLog!H37</f>
         <v>1.0149666666666666</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <f>[13]prepLog!I37</f>
         <v>1.1497999999999999</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="7">
         <f>[13]prepLog!J37</f>
         <v>1.45865</v>
       </c>
@@ -5395,39 +8329,39 @@
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <f>[14]prepLog!B37</f>
         <v>3.8622166666666669</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <f>[14]prepLog!C37</f>
         <v>1.96435</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <f>[14]prepLog!D37</f>
         <v>0.94668333333333332</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <f>[14]prepLog!E37</f>
         <v>1.0125166666666667</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <f>[14]prepLog!F37</f>
         <v>1.2851166666666667</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <f>[14]prepLog!G37</f>
         <v>1.0445833333333334</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <f>[14]prepLog!H37</f>
         <v>0.98819999999999997</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <f>[14]prepLog!I37</f>
         <v>0.98183333333333334</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <f>[14]prepLog!J37</f>
         <v>1.0482333333333334</v>
       </c>
@@ -5528,39 +8462,39 @@
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <f>[15]prepLog!B37</f>
         <v>3.7101333333333333</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <f>[15]prepLog!C37</f>
         <v>1.9184666666666668</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <f>[15]prepLog!D37</f>
         <v>0.80933333333333335</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <f>[15]prepLog!E37</f>
         <v>0.8430333333333333</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <f>[15]prepLog!F37</f>
         <v>1.0204500000000001</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <f>[15]prepLog!G37</f>
         <v>1.3348333333333333</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="7">
         <f>[15]prepLog!H37</f>
         <v>0.97768333333333335</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <f>[15]prepLog!I37</f>
         <v>1.0399166666666666</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="7">
         <f>[15]prepLog!J37</f>
         <v>1.12185</v>
       </c>
@@ -5569,39 +8503,39 @@
       <c r="A40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <f>[16]prepLog!B37</f>
         <v>4.3433999999999999</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <f>[16]prepLog!C37</f>
         <v>1.9130666666666667</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <f>[16]prepLog!D37</f>
         <v>0.94561666666666666</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <f>[16]prepLog!E37</f>
         <v>0.98358333333333337</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <f>[16]prepLog!F37</f>
         <v>0.81706666666666672</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <f>[16]prepLog!G37</f>
         <v>1.1251333333333333</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <f>[16]prepLog!H37</f>
         <v>0.78576666666666661</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <f>[16]prepLog!I37</f>
         <v>0.81541666666666668</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="9">
         <f>[16]prepLog!J37</f>
         <v>0.98570000000000002</v>
       </c>
@@ -5664,9 +8598,3903 @@
         <v>0.98570000000000002</v>
       </c>
     </row>
+    <row r="51" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="13">
+        <v>1</v>
+      </c>
+      <c r="C53" s="13">
+        <f>B53+1</f>
+        <v>2</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" ref="D53:AG53" si="0">C53+1</f>
+        <v>3</v>
+      </c>
+      <c r="E53" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G53" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H53" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I53" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J53" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K53" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L53" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M53" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N53" s="13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O53" s="13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P53" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q53" s="13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R53" s="13">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S53" s="13">
+        <f>R53+1</f>
+        <v>18</v>
+      </c>
+      <c r="T53" s="13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="U53" s="13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V53" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="W53" s="13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="X53" s="13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Y53" s="13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Z53" s="13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AA53" s="13">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AB53" s="13">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AC53" s="13">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AD53" s="13">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AE53" s="13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AF53" s="13">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AG53" s="13">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="2">
+        <v>7086</v>
+      </c>
+      <c r="C54" s="2">
+        <v>31594</v>
+      </c>
+      <c r="D54" s="2">
+        <v>27094</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45814</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45682</v>
+      </c>
+      <c r="G54" s="2">
+        <v>45770</v>
+      </c>
+      <c r="H54" s="2">
+        <v>45741</v>
+      </c>
+      <c r="I54" s="2">
+        <v>45770</v>
+      </c>
+      <c r="J54" s="2">
+        <v>45757</v>
+      </c>
+      <c r="K54" s="2">
+        <v>40275</v>
+      </c>
+      <c r="L54" s="2">
+        <v>40316</v>
+      </c>
+      <c r="M54" s="2">
+        <v>40255</v>
+      </c>
+      <c r="N54" s="2">
+        <v>40278</v>
+      </c>
+      <c r="O54" s="2">
+        <v>40318</v>
+      </c>
+      <c r="P54" s="2">
+        <v>40256</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>40334</v>
+      </c>
+      <c r="R54" s="2">
+        <v>40314</v>
+      </c>
+      <c r="S54" s="2">
+        <v>40315</v>
+      </c>
+      <c r="T54" s="2">
+        <v>40317</v>
+      </c>
+      <c r="U54" s="2">
+        <v>40289</v>
+      </c>
+      <c r="V54" s="2">
+        <v>40274</v>
+      </c>
+      <c r="W54" s="2">
+        <v>40306</v>
+      </c>
+      <c r="X54" s="2">
+        <v>40341</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>40333</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>40330</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>40317</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>40327</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>40301</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>40318</v>
+      </c>
+      <c r="AE54" s="2">
+        <v>40298</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>40336</v>
+      </c>
+      <c r="AG54" s="2">
+        <v>40310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="20">
+        <v>7064</v>
+      </c>
+      <c r="C55" s="20">
+        <v>7068</v>
+      </c>
+      <c r="D55" s="20">
+        <v>5626</v>
+      </c>
+      <c r="E55" s="20">
+        <v>7126</v>
+      </c>
+      <c r="F55" s="20">
+        <v>7153</v>
+      </c>
+      <c r="G55" s="20">
+        <v>7072</v>
+      </c>
+      <c r="H55" s="20">
+        <v>7077</v>
+      </c>
+      <c r="I55" s="20">
+        <v>7069</v>
+      </c>
+      <c r="J55" s="20">
+        <v>7070</v>
+      </c>
+      <c r="K55" s="20">
+        <v>7086</v>
+      </c>
+      <c r="L55" s="20">
+        <v>7086</v>
+      </c>
+      <c r="M55" s="20">
+        <v>7093</v>
+      </c>
+      <c r="N55" s="20">
+        <v>7100</v>
+      </c>
+      <c r="O55" s="20">
+        <v>7109</v>
+      </c>
+      <c r="P55" s="20">
+        <v>7111</v>
+      </c>
+      <c r="Q55" s="20">
+        <v>7086</v>
+      </c>
+      <c r="R55" s="20">
+        <v>7109</v>
+      </c>
+      <c r="S55" s="20">
+        <v>7110</v>
+      </c>
+      <c r="T55" s="20">
+        <v>7119</v>
+      </c>
+      <c r="U55" s="20">
+        <v>7105</v>
+      </c>
+      <c r="V55" s="20">
+        <v>7095</v>
+      </c>
+      <c r="W55" s="20">
+        <v>7119</v>
+      </c>
+      <c r="X55" s="20">
+        <v>7099</v>
+      </c>
+      <c r="Y55" s="20">
+        <v>7116</v>
+      </c>
+      <c r="Z55" s="20">
+        <v>7169</v>
+      </c>
+      <c r="AA55" s="20">
+        <v>7110</v>
+      </c>
+      <c r="AB55" s="20">
+        <v>7120</v>
+      </c>
+      <c r="AC55" s="20">
+        <v>7117</v>
+      </c>
+      <c r="AD55" s="20">
+        <v>7110</v>
+      </c>
+      <c r="AE55" s="20">
+        <v>7113</v>
+      </c>
+      <c r="AF55" s="20">
+        <v>7106</v>
+      </c>
+      <c r="AG55" s="20">
+        <v>7118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>B54/1000</f>
+        <v>7.0860000000000003</v>
+      </c>
+      <c r="C56">
+        <f>C54/1000</f>
+        <v>31.594000000000001</v>
+      </c>
+      <c r="D56">
+        <f>D54/1000</f>
+        <v>27.094000000000001</v>
+      </c>
+      <c r="E56">
+        <f>E54/1000</f>
+        <v>45.814</v>
+      </c>
+      <c r="F56">
+        <f>F54/1000</f>
+        <v>45.682000000000002</v>
+      </c>
+      <c r="G56">
+        <f>G54/1000</f>
+        <v>45.77</v>
+      </c>
+      <c r="H56">
+        <f>H54/1000</f>
+        <v>45.741</v>
+      </c>
+      <c r="I56">
+        <f>I54/1000</f>
+        <v>45.77</v>
+      </c>
+      <c r="J56">
+        <f>J54/1000</f>
+        <v>45.756999999999998</v>
+      </c>
+      <c r="K56">
+        <f>K54/1000</f>
+        <v>40.274999999999999</v>
+      </c>
+      <c r="L56">
+        <f>L54/1000</f>
+        <v>40.316000000000003</v>
+      </c>
+      <c r="M56">
+        <f>M54/1000</f>
+        <v>40.255000000000003</v>
+      </c>
+      <c r="N56">
+        <f>N54/1000</f>
+        <v>40.277999999999999</v>
+      </c>
+      <c r="O56">
+        <f>O54/1000</f>
+        <v>40.317999999999998</v>
+      </c>
+      <c r="P56">
+        <f>P54/1000</f>
+        <v>40.256</v>
+      </c>
+      <c r="Q56">
+        <f>Q54/1000</f>
+        <v>40.334000000000003</v>
+      </c>
+      <c r="R56">
+        <f>R54/1000</f>
+        <v>40.314</v>
+      </c>
+      <c r="S56">
+        <f>S54/1000</f>
+        <v>40.314999999999998</v>
+      </c>
+      <c r="T56">
+        <f>T54/1000</f>
+        <v>40.317</v>
+      </c>
+      <c r="U56">
+        <f>U54/1000</f>
+        <v>40.289000000000001</v>
+      </c>
+      <c r="V56">
+        <f>V54/1000</f>
+        <v>40.274000000000001</v>
+      </c>
+      <c r="W56">
+        <f>W54/1000</f>
+        <v>40.305999999999997</v>
+      </c>
+      <c r="X56">
+        <f>X54/1000</f>
+        <v>40.341000000000001</v>
+      </c>
+      <c r="Y56">
+        <f>Y54/1000</f>
+        <v>40.332999999999998</v>
+      </c>
+      <c r="Z56">
+        <f>Z54/1000</f>
+        <v>40.33</v>
+      </c>
+      <c r="AA56">
+        <f>AA54/1000</f>
+        <v>40.317</v>
+      </c>
+      <c r="AB56">
+        <f>AB54/1000</f>
+        <v>40.326999999999998</v>
+      </c>
+      <c r="AC56">
+        <f>AC54/1000</f>
+        <v>40.301000000000002</v>
+      </c>
+      <c r="AD56">
+        <f>AD54/1000</f>
+        <v>40.317999999999998</v>
+      </c>
+      <c r="AE56">
+        <f>AE54/1000</f>
+        <v>40.298000000000002</v>
+      </c>
+      <c r="AF56">
+        <f>AF54/1000</f>
+        <v>40.335999999999999</v>
+      </c>
+      <c r="AG56">
+        <f>AG54/1000</f>
+        <v>40.31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f>B55/1000</f>
+        <v>7.0640000000000001</v>
+      </c>
+      <c r="C57">
+        <f>C55/1000</f>
+        <v>7.0679999999999996</v>
+      </c>
+      <c r="D57">
+        <f>D55/1000</f>
+        <v>5.6260000000000003</v>
+      </c>
+      <c r="E57">
+        <f>E55/1000</f>
+        <v>7.1260000000000003</v>
+      </c>
+      <c r="F57">
+        <f>F55/1000</f>
+        <v>7.1529999999999996</v>
+      </c>
+      <c r="G57">
+        <f>G55/1000</f>
+        <v>7.0720000000000001</v>
+      </c>
+      <c r="H57">
+        <f>H55/1000</f>
+        <v>7.077</v>
+      </c>
+      <c r="I57">
+        <f>I55/1000</f>
+        <v>7.069</v>
+      </c>
+      <c r="J57">
+        <f>J55/1000</f>
+        <v>7.07</v>
+      </c>
+      <c r="K57">
+        <f>K55/1000</f>
+        <v>7.0860000000000003</v>
+      </c>
+      <c r="L57">
+        <f>L55/1000</f>
+        <v>7.0860000000000003</v>
+      </c>
+      <c r="M57">
+        <f>M55/1000</f>
+        <v>7.093</v>
+      </c>
+      <c r="N57">
+        <f>N55/1000</f>
+        <v>7.1</v>
+      </c>
+      <c r="O57">
+        <f>O55/1000</f>
+        <v>7.109</v>
+      </c>
+      <c r="P57">
+        <f>P55/1000</f>
+        <v>7.1109999999999998</v>
+      </c>
+      <c r="Q57">
+        <f>Q55/1000</f>
+        <v>7.0860000000000003</v>
+      </c>
+      <c r="R57">
+        <f>R55/1000</f>
+        <v>7.109</v>
+      </c>
+      <c r="S57">
+        <f>S55/1000</f>
+        <v>7.11</v>
+      </c>
+      <c r="T57">
+        <f>T55/1000</f>
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="U57">
+        <f>U55/1000</f>
+        <v>7.1050000000000004</v>
+      </c>
+      <c r="V57">
+        <f>V55/1000</f>
+        <v>7.0949999999999998</v>
+      </c>
+      <c r="W57">
+        <f>W55/1000</f>
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="X57">
+        <f>X55/1000</f>
+        <v>7.0990000000000002</v>
+      </c>
+      <c r="Y57">
+        <f>Y55/1000</f>
+        <v>7.1159999999999997</v>
+      </c>
+      <c r="Z57">
+        <f>Z55/1000</f>
+        <v>7.1689999999999996</v>
+      </c>
+      <c r="AA57">
+        <f>AA55/1000</f>
+        <v>7.11</v>
+      </c>
+      <c r="AB57">
+        <f>AB55/1000</f>
+        <v>7.12</v>
+      </c>
+      <c r="AC57">
+        <f>AC55/1000</f>
+        <v>7.117</v>
+      </c>
+      <c r="AD57">
+        <f>AD55/1000</f>
+        <v>7.11</v>
+      </c>
+      <c r="AE57">
+        <f>AE55/1000</f>
+        <v>7.1130000000000004</v>
+      </c>
+      <c r="AF57">
+        <f>AF55/1000</f>
+        <v>7.1059999999999999</v>
+      </c>
+      <c r="AG57">
+        <f>AG55/1000</f>
+        <v>7.1180000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="21"/>
+      <c r="AB59" s="21"/>
+      <c r="AC59" s="21"/>
+      <c r="AD59" s="21"/>
+      <c r="AE59" s="21"/>
+      <c r="AF59" s="21"/>
+      <c r="AG59" s="21"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="13">
+        <v>1</v>
+      </c>
+      <c r="C60" s="13">
+        <f>B60+1</f>
+        <v>2</v>
+      </c>
+      <c r="D60" s="13">
+        <f t="shared" ref="D60:AG60" si="1">C60+1</f>
+        <v>3</v>
+      </c>
+      <c r="E60" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F60" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G60" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H60" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I60" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J60" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K60" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L60" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M60" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N60" s="13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="O60" s="13">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P60" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q60" s="13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="R60" s="13">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S60" s="13">
+        <f>R60+1</f>
+        <v>18</v>
+      </c>
+      <c r="T60" s="13">
+        <f t="shared" ref="T60:AG60" si="2">S60+1</f>
+        <v>19</v>
+      </c>
+      <c r="U60" s="13">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="V60" s="13">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="W60" s="13">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="X60" s="13">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="Y60" s="13">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="Z60" s="13">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="AA60" s="13">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AB60" s="13">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="AC60" s="13">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="AD60" s="13">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="AE60" s="13">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AF60" s="13">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="AG60" s="13">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="2">
+        <v>7072</v>
+      </c>
+      <c r="C61" s="2">
+        <v>31400</v>
+      </c>
+      <c r="D61" s="2">
+        <v>26875</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45486</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45509</v>
+      </c>
+      <c r="G61" s="2">
+        <v>45534</v>
+      </c>
+      <c r="H61" s="2">
+        <v>45414</v>
+      </c>
+      <c r="I61" s="2">
+        <v>45454</v>
+      </c>
+      <c r="J61" s="2">
+        <v>45499</v>
+      </c>
+      <c r="K61" s="2">
+        <v>40041</v>
+      </c>
+      <c r="L61" s="2">
+        <v>39991</v>
+      </c>
+      <c r="M61" s="2">
+        <v>40000</v>
+      </c>
+      <c r="N61" s="2">
+        <v>40002</v>
+      </c>
+      <c r="O61" s="2">
+        <v>40014</v>
+      </c>
+      <c r="P61" s="2">
+        <v>39993</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>40036</v>
+      </c>
+      <c r="R61" s="2">
+        <v>40014</v>
+      </c>
+      <c r="S61" s="2">
+        <v>40037</v>
+      </c>
+      <c r="T61" s="2">
+        <v>40005</v>
+      </c>
+      <c r="U61" s="2">
+        <v>40142</v>
+      </c>
+      <c r="V61" s="2">
+        <v>40115</v>
+      </c>
+      <c r="W61" s="2">
+        <v>40079</v>
+      </c>
+      <c r="X61" s="2">
+        <v>40052</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>40070</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>40068</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>39989</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>40045</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>40064</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>40033</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>39967</v>
+      </c>
+      <c r="AF61" s="2">
+        <v>40008</v>
+      </c>
+      <c r="AG61" s="2">
+        <v>40040</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="20">
+        <v>7326</v>
+      </c>
+      <c r="C62" s="20">
+        <v>6969</v>
+      </c>
+      <c r="D62" s="20">
+        <v>6936</v>
+      </c>
+      <c r="E62" s="20">
+        <v>6932</v>
+      </c>
+      <c r="F62" s="20">
+        <v>6932</v>
+      </c>
+      <c r="G62" s="20">
+        <v>6924</v>
+      </c>
+      <c r="H62" s="20">
+        <v>6945</v>
+      </c>
+      <c r="I62" s="20">
+        <v>6936</v>
+      </c>
+      <c r="J62" s="20">
+        <v>6941</v>
+      </c>
+      <c r="K62" s="20">
+        <v>7039</v>
+      </c>
+      <c r="L62" s="20">
+        <v>7055</v>
+      </c>
+      <c r="M62" s="20">
+        <v>7102</v>
+      </c>
+      <c r="N62" s="20">
+        <v>7094</v>
+      </c>
+      <c r="O62" s="20">
+        <v>7130</v>
+      </c>
+      <c r="P62" s="20">
+        <v>7024</v>
+      </c>
+      <c r="Q62" s="20">
+        <v>6986</v>
+      </c>
+      <c r="R62" s="20">
+        <v>6951</v>
+      </c>
+      <c r="S62" s="20">
+        <v>7060</v>
+      </c>
+      <c r="T62" s="20">
+        <v>7142</v>
+      </c>
+      <c r="U62" s="20">
+        <v>7138</v>
+      </c>
+      <c r="V62" s="20">
+        <v>7121</v>
+      </c>
+      <c r="W62" s="20">
+        <v>7119</v>
+      </c>
+      <c r="X62" s="20">
+        <v>7120</v>
+      </c>
+      <c r="Y62" s="20">
+        <v>7138</v>
+      </c>
+      <c r="Z62" s="20">
+        <v>7116</v>
+      </c>
+      <c r="AA62" s="20">
+        <v>7055</v>
+      </c>
+      <c r="AB62" s="20">
+        <v>7200</v>
+      </c>
+      <c r="AC62" s="20">
+        <v>7133</v>
+      </c>
+      <c r="AD62" s="20">
+        <v>7109</v>
+      </c>
+      <c r="AE62" s="20">
+        <v>7120</v>
+      </c>
+      <c r="AF62" s="20">
+        <v>7109</v>
+      </c>
+      <c r="AG62" s="20">
+        <v>7107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f>B61/1000</f>
+        <v>7.0720000000000001</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:AG63" si="3">C61/1000</f>
+        <v>31.4</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="3"/>
+        <v>26.875</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>45.485999999999997</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="3"/>
+        <v>45.509</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>45.533999999999999</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>45.414000000000001</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>45.454000000000001</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>45.499000000000002</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>40.040999999999997</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="3"/>
+        <v>39.991</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="3"/>
+        <v>40.002000000000002</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="3"/>
+        <v>40.014000000000003</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="3"/>
+        <v>39.993000000000002</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="3"/>
+        <v>40.036000000000001</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="3"/>
+        <v>40.014000000000003</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="3"/>
+        <v>40.036999999999999</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="3"/>
+        <v>40.005000000000003</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="3"/>
+        <v>40.142000000000003</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="3"/>
+        <v>40.115000000000002</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="3"/>
+        <v>40.079000000000001</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="3"/>
+        <v>40.052</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="3"/>
+        <v>40.07</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="3"/>
+        <v>40.067999999999998</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="3"/>
+        <v>39.988999999999997</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="3"/>
+        <v>40.045000000000002</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="3"/>
+        <v>40.064</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="3"/>
+        <v>40.033000000000001</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="3"/>
+        <v>39.966999999999999</v>
+      </c>
+      <c r="AF63">
+        <f t="shared" si="3"/>
+        <v>40.008000000000003</v>
+      </c>
+      <c r="AG63">
+        <f t="shared" si="3"/>
+        <v>40.04</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f>B62/1000</f>
+        <v>7.3259999999999996</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:AG64" si="4">C62/1000</f>
+        <v>6.9690000000000003</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="4"/>
+        <v>6.9359999999999999</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>6.9320000000000004</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>6.9320000000000004</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>6.9240000000000004</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="4"/>
+        <v>6.9450000000000003</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>6.9359999999999999</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>6.9409999999999998</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>7.0389999999999997</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="4"/>
+        <v>7.0549999999999997</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="4"/>
+        <v>7.1020000000000003</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="4"/>
+        <v>7.0940000000000003</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="4"/>
+        <v>7.13</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="4"/>
+        <v>7.024</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="4"/>
+        <v>6.9859999999999998</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="4"/>
+        <v>6.9509999999999996</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="4"/>
+        <v>7.06</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="4"/>
+        <v>7.1420000000000003</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="4"/>
+        <v>7.1379999999999999</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="4"/>
+        <v>7.1210000000000004</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="4"/>
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="4"/>
+        <v>7.12</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="4"/>
+        <v>7.1379999999999999</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="4"/>
+        <v>7.1159999999999997</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="4"/>
+        <v>7.0549999999999997</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="4"/>
+        <v>7.2</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="4"/>
+        <v>7.133</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="4"/>
+        <v>7.109</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="4"/>
+        <v>7.12</v>
+      </c>
+      <c r="AF64">
+        <f t="shared" si="4"/>
+        <v>7.109</v>
+      </c>
+      <c r="AG64">
+        <f t="shared" si="4"/>
+        <v>7.1070000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="18"/>
+      <c r="V66" s="18"/>
+      <c r="W66" s="18"/>
+      <c r="X66" s="18"/>
+      <c r="Y66" s="18"/>
+      <c r="Z66" s="18"/>
+      <c r="AA66" s="18"/>
+      <c r="AB66" s="18"/>
+      <c r="AC66" s="18"/>
+      <c r="AD66" s="18"/>
+      <c r="AE66" s="18"/>
+      <c r="AF66" s="18"/>
+      <c r="AG66" s="19"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="15"/>
+      <c r="AG67" s="16"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="13">
+        <v>1</v>
+      </c>
+      <c r="C68" s="13">
+        <f>B68+1</f>
+        <v>2</v>
+      </c>
+      <c r="D68" s="13">
+        <f t="shared" ref="D68:AG68" si="5">C68+1</f>
+        <v>3</v>
+      </c>
+      <c r="E68" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F68" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G68" s="13">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H68" s="13">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I68" s="13">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J68" s="13">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="K68" s="13">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="L68" s="13">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="M68" s="13">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N68" s="13">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="O68" s="13">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="P68" s="13">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="Q68" s="13">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="R68" s="13">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="S68" s="13">
+        <f>R68+1</f>
+        <v>18</v>
+      </c>
+      <c r="T68" s="13">
+        <f t="shared" ref="T68:AG68" si="6">S68+1</f>
+        <v>19</v>
+      </c>
+      <c r="U68" s="13">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="V68" s="13">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="W68" s="13">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="X68" s="13">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="Y68" s="13">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="Z68" s="13">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="AA68" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="AB68" s="13">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="AC68" s="13">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="AD68" s="13">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="AE68" s="13">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="AF68" s="13">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="AG68" s="13">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="2">
+        <v>7058</v>
+      </c>
+      <c r="C69" s="2">
+        <v>11156</v>
+      </c>
+      <c r="D69" s="2">
+        <v>5678</v>
+      </c>
+      <c r="E69" s="2">
+        <v>11237</v>
+      </c>
+      <c r="F69" s="2">
+        <v>11256</v>
+      </c>
+      <c r="G69" s="2">
+        <v>11273</v>
+      </c>
+      <c r="H69" s="2">
+        <v>11283</v>
+      </c>
+      <c r="I69" s="2">
+        <v>11283</v>
+      </c>
+      <c r="J69" s="2">
+        <v>11293</v>
+      </c>
+      <c r="K69" s="2">
+        <v>5693</v>
+      </c>
+      <c r="L69" s="2">
+        <v>5696</v>
+      </c>
+      <c r="M69" s="2">
+        <v>5711</v>
+      </c>
+      <c r="N69" s="2">
+        <v>5704</v>
+      </c>
+      <c r="O69" s="2">
+        <v>5702</v>
+      </c>
+      <c r="P69" s="2">
+        <v>5686</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>5689</v>
+      </c>
+      <c r="R69" s="2">
+        <v>5686</v>
+      </c>
+      <c r="S69" s="2">
+        <v>5694</v>
+      </c>
+      <c r="T69" s="2">
+        <v>5683</v>
+      </c>
+      <c r="U69" s="2">
+        <v>5704</v>
+      </c>
+      <c r="V69" s="2">
+        <v>5737</v>
+      </c>
+      <c r="W69" s="2">
+        <v>5702</v>
+      </c>
+      <c r="X69" s="2">
+        <v>5690</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>5723</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>5718</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>5705</v>
+      </c>
+      <c r="AB69" s="2">
+        <v>5682</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>5690</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>5688</v>
+      </c>
+      <c r="AE69" s="2">
+        <v>5728</v>
+      </c>
+      <c r="AF69" s="2">
+        <v>5685</v>
+      </c>
+      <c r="AG69" s="2">
+        <v>5695</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="20">
+        <v>7039</v>
+      </c>
+      <c r="C70" s="20">
+        <v>11102</v>
+      </c>
+      <c r="D70" s="20">
+        <v>11302</v>
+      </c>
+      <c r="E70" s="20">
+        <v>11250</v>
+      </c>
+      <c r="F70" s="20">
+        <v>11251</v>
+      </c>
+      <c r="G70" s="20">
+        <v>11243</v>
+      </c>
+      <c r="H70" s="20">
+        <v>11268</v>
+      </c>
+      <c r="I70" s="20">
+        <v>11262</v>
+      </c>
+      <c r="J70" s="20">
+        <v>11267</v>
+      </c>
+      <c r="K70" s="20">
+        <v>7105</v>
+      </c>
+      <c r="L70" s="20">
+        <v>7119</v>
+      </c>
+      <c r="M70" s="20">
+        <v>7127</v>
+      </c>
+      <c r="N70" s="20">
+        <v>7121</v>
+      </c>
+      <c r="O70" s="20">
+        <v>7127</v>
+      </c>
+      <c r="P70" s="20">
+        <v>7120</v>
+      </c>
+      <c r="Q70" s="20">
+        <v>7112</v>
+      </c>
+      <c r="R70" s="20">
+        <v>7105</v>
+      </c>
+      <c r="S70" s="20">
+        <v>7100</v>
+      </c>
+      <c r="T70" s="20">
+        <v>7116</v>
+      </c>
+      <c r="U70" s="20">
+        <v>7119</v>
+      </c>
+      <c r="V70" s="20">
+        <v>7127</v>
+      </c>
+      <c r="W70" s="20">
+        <v>7098</v>
+      </c>
+      <c r="X70" s="20">
+        <v>7109</v>
+      </c>
+      <c r="Y70" s="20">
+        <v>7120</v>
+      </c>
+      <c r="Z70" s="20">
+        <v>7113</v>
+      </c>
+      <c r="AA70" s="20">
+        <v>7122</v>
+      </c>
+      <c r="AB70" s="20">
+        <v>7108</v>
+      </c>
+      <c r="AC70" s="20">
+        <v>7107</v>
+      </c>
+      <c r="AD70" s="20">
+        <v>7124</v>
+      </c>
+      <c r="AE70" s="20">
+        <v>7118</v>
+      </c>
+      <c r="AF70" s="20">
+        <v>7119</v>
+      </c>
+      <c r="AG70" s="20">
+        <v>7084</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f>B69/1000</f>
+        <v>7.0579999999999998</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:AG71" si="7">C69/1000</f>
+        <v>11.156000000000001</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="7"/>
+        <v>5.6779999999999999</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="7"/>
+        <v>11.237</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="7"/>
+        <v>11.256</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="7"/>
+        <v>11.273</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="7"/>
+        <v>11.282999999999999</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="7"/>
+        <v>11.282999999999999</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="7"/>
+        <v>11.292999999999999</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="7"/>
+        <v>5.6929999999999996</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="7"/>
+        <v>5.6959999999999997</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="7"/>
+        <v>5.7110000000000003</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="7"/>
+        <v>5.7039999999999997</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="7"/>
+        <v>5.702</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="7"/>
+        <v>5.6859999999999999</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="7"/>
+        <v>5.6890000000000001</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="7"/>
+        <v>5.6859999999999999</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="7"/>
+        <v>5.694</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="7"/>
+        <v>5.6829999999999998</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="7"/>
+        <v>5.7039999999999997</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="7"/>
+        <v>5.7370000000000001</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="7"/>
+        <v>5.702</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="7"/>
+        <v>5.69</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="7"/>
+        <v>5.7229999999999999</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="7"/>
+        <v>5.718</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="7"/>
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="7"/>
+        <v>5.6820000000000004</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="7"/>
+        <v>5.69</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="7"/>
+        <v>5.6879999999999997</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="7"/>
+        <v>5.7279999999999998</v>
+      </c>
+      <c r="AF71">
+        <f t="shared" si="7"/>
+        <v>5.6849999999999996</v>
+      </c>
+      <c r="AG71">
+        <f t="shared" si="7"/>
+        <v>5.6950000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f>B70/1000</f>
+        <v>7.0389999999999997</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ref="C72:AG72" si="8">C70/1000</f>
+        <v>11.102</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="8"/>
+        <v>11.302</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="8"/>
+        <v>11.25</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
+        <v>11.250999999999999</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="8"/>
+        <v>11.243</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="8"/>
+        <v>11.268000000000001</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="8"/>
+        <v>11.262</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="8"/>
+        <v>11.266999999999999</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="8"/>
+        <v>7.1050000000000004</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="8"/>
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="8"/>
+        <v>7.1269999999999998</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="8"/>
+        <v>7.1210000000000004</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="8"/>
+        <v>7.1269999999999998</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="8"/>
+        <v>7.12</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="8"/>
+        <v>7.1120000000000001</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="8"/>
+        <v>7.1050000000000004</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="8"/>
+        <v>7.1</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="8"/>
+        <v>7.1159999999999997</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="8"/>
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="8"/>
+        <v>7.1269999999999998</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="8"/>
+        <v>7.0979999999999999</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="8"/>
+        <v>7.109</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="8"/>
+        <v>7.12</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="8"/>
+        <v>7.1130000000000004</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="8"/>
+        <v>7.1219999999999999</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="8"/>
+        <v>7.1079999999999997</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="8"/>
+        <v>7.1070000000000002</v>
+      </c>
+      <c r="AD72">
+        <f t="shared" si="8"/>
+        <v>7.1239999999999997</v>
+      </c>
+      <c r="AE72">
+        <f t="shared" si="8"/>
+        <v>7.1180000000000003</v>
+      </c>
+      <c r="AF72">
+        <f t="shared" si="8"/>
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="AG72">
+        <f t="shared" si="8"/>
+        <v>7.0839999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="23"/>
+      <c r="Y74" s="23"/>
+      <c r="Z74" s="23"/>
+      <c r="AA74" s="23"/>
+      <c r="AB74" s="23"/>
+      <c r="AC74" s="23"/>
+      <c r="AD74" s="23"/>
+      <c r="AE74" s="23"/>
+      <c r="AF74" s="23"/>
+      <c r="AG74" s="24"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="13">
+        <v>1</v>
+      </c>
+      <c r="C75" s="13">
+        <f>B75+1</f>
+        <v>2</v>
+      </c>
+      <c r="D75" s="13">
+        <f t="shared" ref="D75:AG75" si="9">C75+1</f>
+        <v>3</v>
+      </c>
+      <c r="E75" s="13">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F75" s="13">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="G75" s="13">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="H75" s="13">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="I75" s="13">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J75" s="13">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="K75" s="13">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="L75" s="13">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="M75" s="13">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="N75" s="13">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="O75" s="13">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="P75" s="13">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="Q75" s="13">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="R75" s="13">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="S75" s="13">
+        <f>R75+1</f>
+        <v>18</v>
+      </c>
+      <c r="T75" s="13">
+        <f t="shared" ref="T75:AG75" si="10">S75+1</f>
+        <v>19</v>
+      </c>
+      <c r="U75" s="13">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="V75" s="13">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="W75" s="13">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="X75" s="13">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="Y75" s="13">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="Z75" s="13">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="AA75" s="13">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="AB75" s="13">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="AC75" s="13">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="AD75" s="13">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="AE75" s="13">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="AF75" s="13">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="AG75" s="13">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2393</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2214</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2222</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2079</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1775</v>
+      </c>
+      <c r="G76" s="2">
+        <v>2149</v>
+      </c>
+      <c r="H76" s="2">
+        <v>2241</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1946</v>
+      </c>
+      <c r="J76" s="2">
+        <v>2212</v>
+      </c>
+      <c r="K76" s="2">
+        <v>2220</v>
+      </c>
+      <c r="L76" s="2">
+        <v>2278</v>
+      </c>
+      <c r="M76" s="2">
+        <v>2103</v>
+      </c>
+      <c r="N76" s="2">
+        <v>2234</v>
+      </c>
+      <c r="O76" s="2">
+        <v>1775</v>
+      </c>
+      <c r="P76" s="2">
+        <v>2203</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>1792</v>
+      </c>
+      <c r="R76" s="2">
+        <v>2229</v>
+      </c>
+      <c r="S76" s="2">
+        <v>2276</v>
+      </c>
+      <c r="T76" s="2">
+        <v>2206</v>
+      </c>
+      <c r="U76" s="2">
+        <v>2254</v>
+      </c>
+      <c r="V76" s="2">
+        <v>1907</v>
+      </c>
+      <c r="W76" s="2">
+        <v>2213</v>
+      </c>
+      <c r="X76" s="2">
+        <v>1783</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>1778</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>1785</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>2214</v>
+      </c>
+      <c r="AB76" s="2">
+        <v>1925</v>
+      </c>
+      <c r="AC76" s="2">
+        <v>1984</v>
+      </c>
+      <c r="AD76" s="2">
+        <v>2206</v>
+      </c>
+      <c r="AE76" s="2">
+        <v>2221</v>
+      </c>
+      <c r="AF76" s="2">
+        <v>2201</v>
+      </c>
+      <c r="AG76" s="2">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="20">
+        <v>2367</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1785</v>
+      </c>
+      <c r="D77" s="20">
+        <v>1778</v>
+      </c>
+      <c r="E77" s="20">
+        <v>1789</v>
+      </c>
+      <c r="F77" s="20">
+        <v>1780</v>
+      </c>
+      <c r="G77" s="20">
+        <v>1847</v>
+      </c>
+      <c r="H77" s="20">
+        <v>1783</v>
+      </c>
+      <c r="I77" s="20">
+        <v>1780</v>
+      </c>
+      <c r="J77" s="20">
+        <v>1770</v>
+      </c>
+      <c r="K77" s="20">
+        <v>1774</v>
+      </c>
+      <c r="L77" s="20">
+        <v>1790</v>
+      </c>
+      <c r="M77" s="20">
+        <v>1797</v>
+      </c>
+      <c r="N77" s="20">
+        <v>1961</v>
+      </c>
+      <c r="O77" s="20">
+        <v>1966</v>
+      </c>
+      <c r="P77" s="20">
+        <v>1786</v>
+      </c>
+      <c r="Q77" s="20">
+        <v>1805</v>
+      </c>
+      <c r="R77" s="20">
+        <v>2064</v>
+      </c>
+      <c r="S77" s="20">
+        <v>2116</v>
+      </c>
+      <c r="T77" s="20">
+        <v>1781</v>
+      </c>
+      <c r="U77" s="20">
+        <v>1783</v>
+      </c>
+      <c r="V77" s="20">
+        <v>1783</v>
+      </c>
+      <c r="W77" s="20">
+        <v>1773</v>
+      </c>
+      <c r="X77" s="20">
+        <v>1778</v>
+      </c>
+      <c r="Y77" s="20">
+        <v>1783</v>
+      </c>
+      <c r="Z77" s="20">
+        <v>1881</v>
+      </c>
+      <c r="AA77" s="20">
+        <v>1778</v>
+      </c>
+      <c r="AB77" s="20">
+        <v>1783</v>
+      </c>
+      <c r="AC77" s="20">
+        <v>1900</v>
+      </c>
+      <c r="AD77" s="20">
+        <v>1777</v>
+      </c>
+      <c r="AE77" s="20">
+        <v>1778</v>
+      </c>
+      <c r="AF77" s="20">
+        <v>1782</v>
+      </c>
+      <c r="AG77" s="20">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f>B76/1000</f>
+        <v>2.3929999999999998</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ref="C78:AG78" si="11">C76/1000</f>
+        <v>2.214</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="11"/>
+        <v>2.222</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="11"/>
+        <v>2.0790000000000002</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="11"/>
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="11"/>
+        <v>2.149</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="11"/>
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="11"/>
+        <v>1.946</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="11"/>
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="11"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="11"/>
+        <v>2.278</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="11"/>
+        <v>2.1030000000000002</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="11"/>
+        <v>2.234</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="11"/>
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="11"/>
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="11"/>
+        <v>1.792</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="11"/>
+        <v>2.2290000000000001</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="11"/>
+        <v>2.2759999999999998</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="11"/>
+        <v>2.206</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="11"/>
+        <v>2.254</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="11"/>
+        <v>1.907</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="11"/>
+        <v>2.2130000000000001</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="11"/>
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="11"/>
+        <v>1.778</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="11"/>
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="11"/>
+        <v>2.214</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="11"/>
+        <v>1.925</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="11"/>
+        <v>1.984</v>
+      </c>
+      <c r="AD78">
+        <f t="shared" si="11"/>
+        <v>2.206</v>
+      </c>
+      <c r="AE78">
+        <f t="shared" si="11"/>
+        <v>2.2210000000000001</v>
+      </c>
+      <c r="AF78">
+        <f t="shared" si="11"/>
+        <v>2.2010000000000001</v>
+      </c>
+      <c r="AG78">
+        <f t="shared" si="11"/>
+        <v>2.2930000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f>B77/1000</f>
+        <v>2.367</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ref="C79:AG79" si="12">C77/1000</f>
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="12"/>
+        <v>1.778</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="12"/>
+        <v>1.7889999999999999</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="12"/>
+        <v>1.78</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="12"/>
+        <v>1.847</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="12"/>
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="12"/>
+        <v>1.78</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="12"/>
+        <v>1.77</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="12"/>
+        <v>1.774</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="12"/>
+        <v>1.79</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="12"/>
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="12"/>
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="12"/>
+        <v>1.966</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="12"/>
+        <v>1.786</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="12"/>
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="12"/>
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="12"/>
+        <v>2.1160000000000001</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="12"/>
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="12"/>
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="12"/>
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="12"/>
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="12"/>
+        <v>1.778</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="12"/>
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="12"/>
+        <v>1.881</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="12"/>
+        <v>1.778</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="12"/>
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="12"/>
+        <v>1.9</v>
+      </c>
+      <c r="AD79">
+        <f t="shared" si="12"/>
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="AE79">
+        <f t="shared" si="12"/>
+        <v>1.778</v>
+      </c>
+      <c r="AF79">
+        <f t="shared" si="12"/>
+        <v>1.782</v>
+      </c>
+      <c r="AG79">
+        <f t="shared" si="12"/>
+        <v>2.044</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
+      <c r="U83" s="18"/>
+      <c r="V83" s="18"/>
+      <c r="W83" s="18"/>
+      <c r="X83" s="18"/>
+      <c r="Y83" s="18"/>
+      <c r="Z83" s="18"/>
+      <c r="AA83" s="18"/>
+      <c r="AB83" s="18"/>
+      <c r="AC83" s="18"/>
+      <c r="AD83" s="18"/>
+      <c r="AE83" s="18"/>
+      <c r="AF83" s="18"/>
+      <c r="AG83" s="19"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="16"/>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="13">
+        <v>1</v>
+      </c>
+      <c r="C85" s="13">
+        <f>B85+1</f>
+        <v>2</v>
+      </c>
+      <c r="D85" s="13">
+        <f t="shared" ref="D85:AG85" si="13">C85+1</f>
+        <v>3</v>
+      </c>
+      <c r="E85" s="13">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F85" s="13">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="G85" s="13">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="H85" s="13">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="I85" s="13">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="J85" s="13">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="K85" s="13">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="L85" s="13">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="M85" s="13">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="N85" s="13">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="O85" s="13">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="P85" s="13">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="Q85" s="13">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="R85" s="13">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="S85" s="13">
+        <f>R85+1</f>
+        <v>18</v>
+      </c>
+      <c r="T85" s="13">
+        <f t="shared" ref="T85:AG85" si="14">S85+1</f>
+        <v>19</v>
+      </c>
+      <c r="U85" s="13">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="V85" s="13">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="W85" s="13">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="X85" s="13">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="Y85" s="13">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="Z85" s="13">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="AA85" s="13">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="AB85" s="13">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="AC85" s="13">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="AD85" s="13">
+        <f t="shared" si="14"/>
+        <v>29</v>
+      </c>
+      <c r="AE85" s="13">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="AF85" s="13">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="AG85" s="13">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="2">
+        <v>7016</v>
+      </c>
+      <c r="C86" s="2">
+        <v>11084</v>
+      </c>
+      <c r="D86" s="2">
+        <v>11166</v>
+      </c>
+      <c r="E86" s="2">
+        <v>11190</v>
+      </c>
+      <c r="F86" s="2">
+        <v>11176</v>
+      </c>
+      <c r="G86" s="2">
+        <v>11267</v>
+      </c>
+      <c r="H86" s="2">
+        <v>11280</v>
+      </c>
+      <c r="I86" s="2">
+        <v>11272</v>
+      </c>
+      <c r="J86" s="2">
+        <v>11279</v>
+      </c>
+      <c r="K86" s="2">
+        <v>7092</v>
+      </c>
+      <c r="L86" s="2">
+        <v>7127</v>
+      </c>
+      <c r="M86" s="2">
+        <v>7111</v>
+      </c>
+      <c r="N86" s="2">
+        <v>7083</v>
+      </c>
+      <c r="O86" s="2">
+        <v>7134</v>
+      </c>
+      <c r="P86" s="2">
+        <v>7076</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>7073</v>
+      </c>
+      <c r="R86" s="2">
+        <v>7071</v>
+      </c>
+      <c r="S86" s="2">
+        <v>7096</v>
+      </c>
+      <c r="T86" s="2">
+        <v>7084</v>
+      </c>
+      <c r="U86" s="2">
+        <v>7105</v>
+      </c>
+      <c r="V86" s="2">
+        <v>7098</v>
+      </c>
+      <c r="W86" s="2">
+        <v>7090</v>
+      </c>
+      <c r="X86" s="2">
+        <v>7150</v>
+      </c>
+      <c r="Y86" s="2">
+        <v>7112</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>7091</v>
+      </c>
+      <c r="AA86" s="2">
+        <v>7068</v>
+      </c>
+      <c r="AB86" s="2">
+        <v>7079</v>
+      </c>
+      <c r="AC86" s="2">
+        <v>7088</v>
+      </c>
+      <c r="AD86" s="2">
+        <v>7090</v>
+      </c>
+      <c r="AE86" s="2">
+        <v>7080</v>
+      </c>
+      <c r="AF86" s="2">
+        <v>7066</v>
+      </c>
+      <c r="AG86" s="2">
+        <v>7086</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="20">
+        <v>7125</v>
+      </c>
+      <c r="C87" s="20">
+        <v>11196</v>
+      </c>
+      <c r="D87" s="20">
+        <v>11237</v>
+      </c>
+      <c r="E87" s="20">
+        <v>11234</v>
+      </c>
+      <c r="F87" s="20">
+        <v>11228</v>
+      </c>
+      <c r="G87" s="20">
+        <v>11249</v>
+      </c>
+      <c r="H87" s="20">
+        <v>11273</v>
+      </c>
+      <c r="I87" s="20">
+        <v>11246</v>
+      </c>
+      <c r="J87" s="20">
+        <v>11270</v>
+      </c>
+      <c r="K87" s="20">
+        <v>7092</v>
+      </c>
+      <c r="L87" s="20">
+        <v>7096</v>
+      </c>
+      <c r="M87" s="20">
+        <v>7114</v>
+      </c>
+      <c r="N87" s="20">
+        <v>7117</v>
+      </c>
+      <c r="O87" s="20">
+        <v>7112</v>
+      </c>
+      <c r="P87" s="20">
+        <v>7127</v>
+      </c>
+      <c r="Q87" s="20">
+        <v>7097</v>
+      </c>
+      <c r="R87" s="20">
+        <v>7109</v>
+      </c>
+      <c r="S87" s="20">
+        <v>7108</v>
+      </c>
+      <c r="T87" s="20">
+        <v>7108</v>
+      </c>
+      <c r="U87" s="20">
+        <v>7111</v>
+      </c>
+      <c r="V87" s="20">
+        <v>7126</v>
+      </c>
+      <c r="W87" s="20">
+        <v>7117</v>
+      </c>
+      <c r="X87" s="20">
+        <v>7105</v>
+      </c>
+      <c r="Y87" s="20">
+        <v>7116</v>
+      </c>
+      <c r="Z87" s="20">
+        <v>7131</v>
+      </c>
+      <c r="AA87" s="20">
+        <v>7106</v>
+      </c>
+      <c r="AB87" s="20">
+        <v>7114</v>
+      </c>
+      <c r="AC87" s="20">
+        <v>7132</v>
+      </c>
+      <c r="AD87" s="20">
+        <v>7111</v>
+      </c>
+      <c r="AE87" s="20">
+        <v>7122</v>
+      </c>
+      <c r="AF87" s="20">
+        <v>7132</v>
+      </c>
+      <c r="AG87" s="20">
+        <v>7109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f>B86/1000</f>
+        <v>7.016</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ref="C88:AG88" si="15">C86/1000</f>
+        <v>11.084</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="15"/>
+        <v>11.166</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="15"/>
+        <v>11.19</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="15"/>
+        <v>11.176</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="15"/>
+        <v>11.266999999999999</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="15"/>
+        <v>11.28</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="15"/>
+        <v>11.272</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="15"/>
+        <v>11.279</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="15"/>
+        <v>7.0919999999999996</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="15"/>
+        <v>7.1269999999999998</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="15"/>
+        <v>7.1109999999999998</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="15"/>
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="15"/>
+        <v>7.1340000000000003</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="15"/>
+        <v>7.0759999999999996</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="15"/>
+        <v>7.0730000000000004</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="15"/>
+        <v>7.0709999999999997</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="15"/>
+        <v>7.0960000000000001</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="15"/>
+        <v>7.0839999999999996</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="15"/>
+        <v>7.1050000000000004</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="15"/>
+        <v>7.0979999999999999</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="15"/>
+        <v>7.09</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="15"/>
+        <v>7.15</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="15"/>
+        <v>7.1120000000000001</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="15"/>
+        <v>7.0910000000000002</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="15"/>
+        <v>7.0679999999999996</v>
+      </c>
+      <c r="AB88">
+        <f t="shared" si="15"/>
+        <v>7.0789999999999997</v>
+      </c>
+      <c r="AC88">
+        <f t="shared" si="15"/>
+        <v>7.0880000000000001</v>
+      </c>
+      <c r="AD88">
+        <f t="shared" si="15"/>
+        <v>7.09</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="15"/>
+        <v>7.08</v>
+      </c>
+      <c r="AF88">
+        <f t="shared" si="15"/>
+        <v>7.0659999999999998</v>
+      </c>
+      <c r="AG88">
+        <f t="shared" si="15"/>
+        <v>7.0860000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f>B87/1000</f>
+        <v>7.125</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ref="C89:AG89" si="16">C87/1000</f>
+        <v>11.196</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="16"/>
+        <v>11.237</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="16"/>
+        <v>11.234</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="16"/>
+        <v>11.228</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="16"/>
+        <v>11.249000000000001</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="16"/>
+        <v>11.273</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="16"/>
+        <v>11.246</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="16"/>
+        <v>11.27</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="16"/>
+        <v>7.0919999999999996</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="16"/>
+        <v>7.0960000000000001</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="16"/>
+        <v>7.1139999999999999</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="16"/>
+        <v>7.117</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="16"/>
+        <v>7.1120000000000001</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="16"/>
+        <v>7.1269999999999998</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="16"/>
+        <v>7.0970000000000004</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="16"/>
+        <v>7.109</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="16"/>
+        <v>7.1079999999999997</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="16"/>
+        <v>7.1079999999999997</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="16"/>
+        <v>7.1109999999999998</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="16"/>
+        <v>7.1260000000000003</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="16"/>
+        <v>7.117</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="16"/>
+        <v>7.1050000000000004</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="16"/>
+        <v>7.1159999999999997</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="16"/>
+        <v>7.1310000000000002</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="16"/>
+        <v>7.1059999999999999</v>
+      </c>
+      <c r="AB89">
+        <f t="shared" si="16"/>
+        <v>7.1139999999999999</v>
+      </c>
+      <c r="AC89">
+        <f t="shared" si="16"/>
+        <v>7.1319999999999997</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="16"/>
+        <v>7.1109999999999998</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="16"/>
+        <v>7.1219999999999999</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="16"/>
+        <v>7.1319999999999997</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="16"/>
+        <v>7.109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="23"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="24"/>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="13">
+        <v>1</v>
+      </c>
+      <c r="C92" s="13">
+        <f>B92+1</f>
+        <v>2</v>
+      </c>
+      <c r="D92" s="13">
+        <f t="shared" ref="D92:AG92" si="17">C92+1</f>
+        <v>3</v>
+      </c>
+      <c r="E92" s="13">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="F92" s="13">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="G92" s="13">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="H92" s="13">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="I92" s="13">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="J92" s="13">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="K92" s="13">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="L92" s="13">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="M92" s="13">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="N92" s="13">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="O92" s="13">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="P92" s="13">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="Q92" s="13">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="R92" s="13">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="S92" s="13">
+        <f>R92+1</f>
+        <v>18</v>
+      </c>
+      <c r="T92" s="13">
+        <f t="shared" ref="T92:AG92" si="18">S92+1</f>
+        <v>19</v>
+      </c>
+      <c r="U92" s="13">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="V92" s="13">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="W92" s="13">
+        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+      <c r="X92" s="13">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="Y92" s="13">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="Z92" s="13">
+        <f t="shared" si="18"/>
+        <v>25</v>
+      </c>
+      <c r="AA92" s="13">
+        <f t="shared" si="18"/>
+        <v>26</v>
+      </c>
+      <c r="AB92" s="13">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="AC92" s="13">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="AD92" s="13">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="AE92" s="13">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="AF92" s="13">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="AG92" s="13">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2138</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1771</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1779</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1780</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1779</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1794</v>
+      </c>
+      <c r="H93" s="2">
+        <v>1790</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1783</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1824</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1793</v>
+      </c>
+      <c r="L93" s="2">
+        <v>1804</v>
+      </c>
+      <c r="M93" s="2">
+        <v>1832</v>
+      </c>
+      <c r="N93" s="2">
+        <v>1778</v>
+      </c>
+      <c r="O93" s="2">
+        <v>1794</v>
+      </c>
+      <c r="P93" s="2">
+        <v>1783</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>1816</v>
+      </c>
+      <c r="R93" s="2">
+        <v>1787</v>
+      </c>
+      <c r="S93" s="2">
+        <v>1817</v>
+      </c>
+      <c r="T93" s="2">
+        <v>1784</v>
+      </c>
+      <c r="U93" s="2">
+        <v>1798</v>
+      </c>
+      <c r="V93" s="2">
+        <v>1792</v>
+      </c>
+      <c r="W93" s="2">
+        <v>1803</v>
+      </c>
+      <c r="X93" s="2">
+        <v>1791</v>
+      </c>
+      <c r="Y93" s="2">
+        <v>1784</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>1818</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>1789</v>
+      </c>
+      <c r="AB93" s="2">
+        <v>1786</v>
+      </c>
+      <c r="AC93" s="2">
+        <v>1784</v>
+      </c>
+      <c r="AD93" s="2">
+        <v>1794</v>
+      </c>
+      <c r="AE93" s="2">
+        <v>1815</v>
+      </c>
+      <c r="AF93" s="2">
+        <v>1808</v>
+      </c>
+      <c r="AG93" s="2">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>1959</v>
+      </c>
+      <c r="C94">
+        <v>1439</v>
+      </c>
+      <c r="D94">
+        <v>1444</v>
+      </c>
+      <c r="E94">
+        <v>1437</v>
+      </c>
+      <c r="F94">
+        <v>1430</v>
+      </c>
+      <c r="G94">
+        <v>1442</v>
+      </c>
+      <c r="H94">
+        <v>1436</v>
+      </c>
+      <c r="I94">
+        <v>1445</v>
+      </c>
+      <c r="J94">
+        <v>1438</v>
+      </c>
+      <c r="K94">
+        <v>1431</v>
+      </c>
+      <c r="L94">
+        <v>1444</v>
+      </c>
+      <c r="M94">
+        <v>1463</v>
+      </c>
+      <c r="N94">
+        <v>1439</v>
+      </c>
+      <c r="O94">
+        <v>1480</v>
+      </c>
+      <c r="P94">
+        <v>1461</v>
+      </c>
+      <c r="Q94">
+        <v>1431</v>
+      </c>
+      <c r="R94">
+        <v>1476</v>
+      </c>
+      <c r="S94">
+        <v>1440</v>
+      </c>
+      <c r="T94">
+        <v>1440</v>
+      </c>
+      <c r="U94">
+        <v>1456</v>
+      </c>
+      <c r="V94">
+        <v>1498</v>
+      </c>
+      <c r="W94">
+        <v>1513</v>
+      </c>
+      <c r="X94">
+        <v>1435</v>
+      </c>
+      <c r="Y94">
+        <v>1440</v>
+      </c>
+      <c r="Z94">
+        <v>1465</v>
+      </c>
+      <c r="AA94">
+        <v>1484</v>
+      </c>
+      <c r="AB94">
+        <v>1433</v>
+      </c>
+      <c r="AC94">
+        <v>1432</v>
+      </c>
+      <c r="AD94">
+        <v>1434</v>
+      </c>
+      <c r="AE94">
+        <v>1485</v>
+      </c>
+      <c r="AF94">
+        <v>1435</v>
+      </c>
+      <c r="AG94">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f>B93/1000</f>
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95:AG95" si="19">C93/1000</f>
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="19"/>
+        <v>1.7789999999999999</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="19"/>
+        <v>1.78</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="19"/>
+        <v>1.7789999999999999</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="19"/>
+        <v>1.794</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="19"/>
+        <v>1.79</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="19"/>
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="19"/>
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="19"/>
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="19"/>
+        <v>1.804</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="19"/>
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="19"/>
+        <v>1.778</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="19"/>
+        <v>1.794</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="19"/>
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="19"/>
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="19"/>
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="19"/>
+        <v>1.8169999999999999</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="19"/>
+        <v>1.784</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="19"/>
+        <v>1.798</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="19"/>
+        <v>1.792</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="19"/>
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="19"/>
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="19"/>
+        <v>1.784</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="19"/>
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="19"/>
+        <v>1.7889999999999999</v>
+      </c>
+      <c r="AB95">
+        <f t="shared" si="19"/>
+        <v>1.786</v>
+      </c>
+      <c r="AC95">
+        <f t="shared" si="19"/>
+        <v>1.784</v>
+      </c>
+      <c r="AD95">
+        <f t="shared" si="19"/>
+        <v>1.794</v>
+      </c>
+      <c r="AE95">
+        <f t="shared" si="19"/>
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="AF95">
+        <f t="shared" si="19"/>
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="AG95">
+        <f t="shared" si="19"/>
+        <v>1.8149999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <f>B94/1000</f>
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ref="C96:AG96" si="20">C94/1000</f>
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="20"/>
+        <v>1.444</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="20"/>
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="20"/>
+        <v>1.43</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="20"/>
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="20"/>
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="20"/>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="20"/>
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="20"/>
+        <v>1.431</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="20"/>
+        <v>1.444</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="20"/>
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="20"/>
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="20"/>
+        <v>1.48</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="20"/>
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="20"/>
+        <v>1.431</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="20"/>
+        <v>1.476</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="20"/>
+        <v>1.44</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="20"/>
+        <v>1.44</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="20"/>
+        <v>1.456</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="20"/>
+        <v>1.498</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="20"/>
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="20"/>
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="20"/>
+        <v>1.44</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="20"/>
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="20"/>
+        <v>1.484</v>
+      </c>
+      <c r="AB96">
+        <f t="shared" si="20"/>
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="AC96">
+        <f t="shared" si="20"/>
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="20"/>
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="20"/>
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="20"/>
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="20"/>
+        <v>1.4650000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="10">
+    <mergeCell ref="A74:AG74"/>
+    <mergeCell ref="A83:AG83"/>
+    <mergeCell ref="A84:AG84"/>
+    <mergeCell ref="A91:AG91"/>
+    <mergeCell ref="A59:AG59"/>
+    <mergeCell ref="A66:AG66"/>
+    <mergeCell ref="A67:AG67"/>
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A52:AG52"/>
+    <mergeCell ref="A51:AG51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
